--- a/mreportsu18.xlsx
+++ b/mreportsu18.xlsx
@@ -1,148 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvarolopezmolina/Desktop/alnassrsaudi/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E2A196-5BBB-5848-8571-75F444025FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Scout</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <t>Potential</t>
-  </si>
-  <si>
-    <t>2025-10-16</t>
-  </si>
-  <si>
-    <t>Alvaro Lopez</t>
-  </si>
-  <si>
-    <t>ILYAS ABU BAKR MAHMOUD SHAIKH</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>Mediocentro defensivo de buena planta física, talla - alto. Salió en la segunda parte y dió orden y pausa al equipo. Manda, se le ve organizando. gestualmente. En transiciones defensivas mostró buen posicionamiento. En duelos aéreos, bien. Técnicamente no es virtuoso, pero si juega a no complicarse entiende el juego y sabe jugar. Es un futbolista interesante, me gustaría seguir viendolo. Con esas cualidades físicas es dificil encontrar a jugadores en saudi.</t>
-  </si>
-  <si>
-    <t>League</t>
-  </si>
-  <si>
-    <t>Home Team</t>
-  </si>
-  <si>
-    <t>Away Team</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Birth Date</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>End Contract</t>
-  </si>
-  <si>
-    <t>Market Value</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>Decision</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Saudi Elite League U-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al-Qadsiah FC </t>
-  </si>
-  <si>
-    <t>Al Ahli Saudi SFC</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>A- Firmar</t>
-  </si>
-  <si>
-    <t>LEVEL 3 - Consistent and standout performance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEVEL 3 - First Team - Starter </t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -157,43 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,140 +424,403 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="22" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Scout</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>League</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Home Team</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Away Team</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Birth Date</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>End Contract</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Market Value</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Sec. Position</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Nationality</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Decision</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Alvaro Lopez</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Saudi Elite League U-18</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al-Qadsiah FC </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Al Ahli Saudi SFC</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al-Qadsiah FC </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ILYAS ABU BAKR MAHMOUD SHAIKH</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>TV - SAFF+</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>23</v>
+      <c r="J2" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Defensive Midfielder (6)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Central Midfielder (8)</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>LEVEL 3 - Consistent and standout performance</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>A - FICHAR</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Mediocentro defensivo de buena planta física, talla - alto. Salió en la segunda parte y dió orden y pausa al equipo. Manda, se le ve organizando. gestualmente. En transiciones defensivas mostró buen posicionamiento. En duelos aéreos, bien. Técnicamente no es virtuoso, pero si juega a no complicarse entiende el juego y sabe jugar. Es un futbolista interesante, me gustaría seguir viendolo. Con esas cualidades físicas es dificil encontrar a jugadores en saudi.</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Juan Gambero</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Saudi Elite League U-18</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al-Qadsiah FC </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Al Ahli Saudi SFC</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al-Qadsiah FC </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ILYAS ABU BAKR MAHMOUD SHAIKH</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>TV - SAFF+</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>17</v>
       </c>
-      <c r="I2">
+      <c r="J3" t="n">
         <v>2007</v>
       </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" t="s">
-        <v>10</v>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Defensive Midfielder (6)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>LEVEL 3 - Consistent and standout performance</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>B+ - INTERESANTE</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Centrocampista con gran presencia física y buena envergadura. Entró en el segundo tiempo aportando equilibrio y criterio en la medular. Lidera desde la comunicación, constantemente dando indicaciones a sus compañeros. En repliegues defensivos mostró timing adecuado y lectura del juego. Gana la mayoría de disputas en el juego aéreo. No destaca por su repertorio técnico, pero juega simple y eficaz, sin arriesgar innecesariamente. Perfil que genera curiosidad, valdría la pena hacerle seguimiento. Jugadores con ese físico y esa madurez táctica son difíciles de encontrar en el fútbol saudí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rafa Gil</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Saudi Elite League U-18</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al-Qadsiah FC </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Al Ahli Saudi SFC</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al-Qadsiah FC </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ILYAS ABU BAKR MAHMOUD SHAIKH</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>LIVE - STADIUM</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2007</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Defensive Midfielder (6)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>LEVEL 3 - Consistent and standout performance</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>A - FICHAR</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Pivote defensivo de complexión robusta y altura destacable. Ingresó tras el descanso y le dio estabilidad y pausa al equipo en la fase de construcción. Se nota su carácter, constantemente organizando y dirigiendo a sus compañeros con gestos. En coberturas defensivas demostró buen sentido posicional y anticipación. Dominante en duelos aéreos. Técnicamente es funcional más que virtuoso, pero compensa con inteligencia de juego y decisiones seguras. Un futbolista que despierta interés, me gustaría poder evaluarlo en más partidos. Con esas características físicas y esa personalidad en cancha, no es fácil encontrar perfiles así en las categorías inferiores saudíes.</t>
+        </is>
       </c>
     </row>
   </sheetData>
